--- a/Simplified Data - Draft I.xlsx
+++ b/Simplified Data - Draft I.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eurisko\Desktop\RaMy\Personal\SH\Tableau de Bord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\dataentry_flask_automation_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA59A7-8C6E-4C9D-8102-CFA24A10F667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D694E2-FCE1-42C2-A600-BF13E3293408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="2310" windowWidth="17280" windowHeight="8880" xr2:uid="{E8CF385C-1E85-4338-B512-43B7D949CFDE}"/>
+    <workbookView xWindow="30030" yWindow="-120" windowWidth="27690" windowHeight="16440" xr2:uid="{E8CF385C-1E85-4338-B512-43B7D949CFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,360 @@
   </si>
   <si>
     <t>Patricia Vergère: Salaire du mois et Rétrocession avril et mai 22</t>
+  </si>
+  <si>
+    <t>Blanchisserie du léman</t>
+  </si>
+  <si>
+    <t>Charges fixes variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devantis / informatique </t>
+  </si>
+  <si>
+    <t>Digitec Galaxus/Fourn. Informatique</t>
+  </si>
+  <si>
+    <t>HR Externalise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infomaniak </t>
+  </si>
+  <si>
+    <t>Itzen ( Christophe)</t>
+  </si>
+  <si>
+    <t>Labor Team/Formation continue apprentie</t>
+  </si>
+  <si>
+    <t>Lyreco/Fournitures bureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSLH (Myeasy Flower) arrangement floral </t>
+  </si>
+  <si>
+    <t>Nespresso</t>
+  </si>
+  <si>
+    <t>Protekta Assurance juridique</t>
+  </si>
+  <si>
+    <t>Simplify/Frappe des rapports médicaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betterstudy Sarl / formation excel Patricia </t>
+  </si>
+  <si>
+    <t>Helsana Ass. collective d'indemnités journalières</t>
+  </si>
+  <si>
+    <t>Impôts à la Source</t>
+  </si>
+  <si>
+    <t>La Poste/Achat timbres</t>
+  </si>
+  <si>
+    <t>Swica Assurance-accidents collective</t>
+  </si>
+  <si>
+    <t>Zurich assurance RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devantis / fourniture informatique </t>
+  </si>
+  <si>
+    <t>Frais Administratifs</t>
+  </si>
+  <si>
+    <t>Patricia Vergère: cotisation carte de crédit, frais de carte et solde facture mois précédent</t>
+  </si>
+  <si>
+    <t>Impôts</t>
+  </si>
+  <si>
+    <t>Nets SA/(lecteur cartes) fournitures bureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMS/frais administratif(signalétique intérieur) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autocarrefour Nyon SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office World / fourniture bureau </t>
+  </si>
+  <si>
+    <t>Ville de Genève (taxe professionnelle communale 2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chubb Sicli (contrôle matériel incendie) </t>
+  </si>
+  <si>
+    <t>Patricia Vergère: DGS carnet à souche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearl Schweiz  fourniture bureau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allo boissons SA </t>
+  </si>
+  <si>
+    <t>Ctr Audit Conseil SA</t>
+  </si>
+  <si>
+    <t>Impôts cantonaux et comunaux 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testzentrale (test psychologique Dr Dayer) </t>
+  </si>
+  <si>
+    <t>Unis Assurance médecins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caisse des médecins / formation tarmed </t>
+  </si>
+  <si>
+    <t>Patricia Vergère: Ordonnance à souche Etat Ge DGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avocat Cramer </t>
+  </si>
+  <si>
+    <t>Fournitures bureau/Amazon/Carte de crédit</t>
+  </si>
+  <si>
+    <t>Linked in / Learning program</t>
+  </si>
+  <si>
+    <t>Abbot/Fourn. Médicale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frais médicaux </t>
+  </si>
+  <si>
+    <t>Alloga (Glaxo) vaccins</t>
+  </si>
+  <si>
+    <t>Applimed</t>
+  </si>
+  <si>
+    <t>Hartmann/Fournitures médicales</t>
+  </si>
+  <si>
+    <t>Labor Team/Fournitures médicales</t>
+  </si>
+  <si>
+    <t>Pangas</t>
+  </si>
+  <si>
+    <t>Pharmacie</t>
+  </si>
+  <si>
+    <t>Steriswiss</t>
+  </si>
+  <si>
+    <t>Viollier/Fournitures médicales</t>
+  </si>
+  <si>
+    <t>Admedics/Fournitures médicales</t>
+  </si>
+  <si>
+    <t>Galexis Pharma (vaccins/médic/matériel)</t>
+  </si>
+  <si>
+    <t>Polymed</t>
+  </si>
+  <si>
+    <t>Procomed/Fournitures médicales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albin /Fournitures médicales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadumed </t>
+  </si>
+  <si>
+    <t>Cardinal Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Berdat </t>
+  </si>
+  <si>
+    <t>Cosanum/Fournitures médicales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hygolet </t>
+  </si>
+  <si>
+    <t>Medimat/Fourniture médicales</t>
+  </si>
+  <si>
+    <t>Promedical/Fournitures médicales</t>
+  </si>
+  <si>
+    <t>Abbvie AG / fournitures médicales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook médical / fournitures médicales </t>
+  </si>
+  <si>
+    <t>Saniswiss</t>
+  </si>
+  <si>
+    <t>Marcel Blanc fournitures médicales</t>
+  </si>
+  <si>
+    <t>Distrimed Cuers / Matériel médical</t>
+  </si>
+  <si>
+    <t>Hexamed / Matériel médical</t>
+  </si>
+  <si>
+    <t>Kaiser + Kraft/Mobilier-decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frais unique </t>
+  </si>
+  <si>
+    <t>Office World/Mobilier (Lampes-porte manteau)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anandic/fourniture médicale </t>
+  </si>
+  <si>
+    <t>Ikea (mobilier)</t>
+  </si>
+  <si>
+    <t>Swissbiling / Flux Group (téléphonie, messages vocaux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swissbilling (mobilier Ikea) </t>
+  </si>
+  <si>
+    <t>Devantis/Câblage informatique et électrique</t>
+  </si>
+  <si>
+    <t>Lipo / mobilier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axonlab réactif </t>
+  </si>
+  <si>
+    <t>Frais Laboratoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atelier Cem Piskin </t>
+  </si>
+  <si>
+    <t>Frais Dentisterie</t>
+  </si>
+  <si>
+    <t>Condor/Dentisterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Technique installation radio-panoramique </t>
+  </si>
+  <si>
+    <t>Denteo/Logiciel Dentisterie</t>
+  </si>
+  <si>
+    <t>Grenke/Leasing dentisterie</t>
+  </si>
+  <si>
+    <t>Le laboratoire Signy/Frais Labo. Dentisterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montandon Richard / Orthodesign </t>
+  </si>
+  <si>
+    <t>DC Technique</t>
+  </si>
+  <si>
+    <t>Dema Dent AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straumann (implant) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saniswiss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office fédéral de la santé publique (autorisation rx) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild </t>
+  </si>
+  <si>
+    <t>David Izquierdo/Laboratoire dentaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axis dental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Grundmann / fourniture dentisterie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alva-tech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Technique installation air flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentsply Sirona Europe </t>
+  </si>
+  <si>
+    <t>Labo dentaire Martini sa</t>
+  </si>
+  <si>
+    <t>Medentia Sarl</t>
+  </si>
+  <si>
+    <t>Discus dental / fourniture dentisterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoire dentaire Vincent de Paz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trisa AG / fournitures dentisterie </t>
+  </si>
+  <si>
+    <t>Labor Team</t>
+  </si>
+  <si>
+    <t>Rétrocessions</t>
+  </si>
+  <si>
+    <t>Kohler Julie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeanmonod Rachel </t>
+  </si>
+  <si>
+    <t>Viollier</t>
+  </si>
+  <si>
+    <t>Unilabs</t>
+  </si>
+  <si>
+    <t>Matt MALTBY</t>
+  </si>
+  <si>
+    <t>Remboursements patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUKADDEM Salma </t>
+  </si>
+  <si>
+    <t>PERRIN Nicolas (dentisterie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJOSTROM Nathalie (dentisterie) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELIL Sonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECCOFEY Nilda del Rosario </t>
   </si>
 </sst>
 </file>
@@ -212,7 +566,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -532,20 +889,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E9E0AA-3CAE-410A-9186-423C34304F34}">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
+      <selection activeCell="E720" sqref="E720"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44562</v>
       </c>
@@ -576,7 +935,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44593</v>
       </c>
@@ -590,7 +949,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44621</v>
       </c>
@@ -604,7 +963,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44652</v>
       </c>
@@ -618,7 +977,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44682</v>
       </c>
@@ -632,7 +991,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44713</v>
       </c>
@@ -646,7 +1005,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44743</v>
       </c>
@@ -660,7 +1019,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44774</v>
       </c>
@@ -674,7 +1033,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44805</v>
       </c>
@@ -688,7 +1047,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44835</v>
       </c>
@@ -702,7 +1061,7 @@
         <v>7465.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44562</v>
       </c>
@@ -716,7 +1075,7 @@
         <v>7292.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44593</v>
       </c>
@@ -730,7 +1089,7 @@
         <v>7292.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44621</v>
       </c>
@@ -744,7 +1103,7 @@
         <v>7292.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44652</v>
       </c>
@@ -758,7 +1117,7 @@
         <v>7292.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44682</v>
       </c>
@@ -772,7 +1131,7 @@
         <v>7292.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44713</v>
       </c>
@@ -786,7 +1145,7 @@
         <v>7292.9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44743</v>
       </c>
@@ -800,7 +1159,7 @@
         <v>7292.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44774</v>
       </c>
@@ -814,7 +1173,7 @@
         <v>7292.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44805</v>
       </c>
@@ -828,7 +1187,7 @@
         <v>7292.85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44835</v>
       </c>
@@ -842,7 +1201,7 @@
         <v>7292.85</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44562</v>
       </c>
@@ -856,7 +1215,7 @@
         <v>4623.95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44593</v>
       </c>
@@ -870,7 +1229,7 @@
         <v>4623.95</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44621</v>
       </c>
@@ -884,7 +1243,7 @@
         <v>5122.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44652</v>
       </c>
@@ -898,7 +1257,7 @@
         <v>4611.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44682</v>
       </c>
@@ -912,7 +1271,7 @@
         <v>4611.55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44713</v>
       </c>
@@ -926,7 +1285,7 @@
         <v>4832.05</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44743</v>
       </c>
@@ -940,7 +1299,7 @@
         <v>5178.55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44774</v>
       </c>
@@ -954,7 +1313,7 @@
         <v>4611.6000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44805</v>
       </c>
@@ -968,7 +1327,7 @@
         <v>4611.6000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44835</v>
       </c>
@@ -982,7 +1341,7 @@
         <v>4611.6000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44562</v>
       </c>
@@ -996,7 +1355,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44593</v>
       </c>
@@ -1010,7 +1369,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44621</v>
       </c>
@@ -1024,7 +1383,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44652</v>
       </c>
@@ -1038,7 +1397,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44682</v>
       </c>
@@ -1052,7 +1411,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44713</v>
       </c>
@@ -1066,7 +1425,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44743</v>
       </c>
@@ -1080,7 +1439,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44774</v>
       </c>
@@ -1094,7 +1453,7 @@
         <v>5178.95</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44805</v>
       </c>
@@ -1108,7 +1467,7 @@
         <v>5922.55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44835</v>
       </c>
@@ -1122,7 +1481,7 @@
         <v>5585.15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44562</v>
       </c>
@@ -1136,7 +1495,7 @@
         <v>4457.1499999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44593</v>
       </c>
@@ -1150,7 +1509,7 @@
         <v>4457.25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44621</v>
       </c>
@@ -1164,7 +1523,7 @@
         <v>4457.25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44652</v>
       </c>
@@ -1178,7 +1537,7 @@
         <v>4457.25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44682</v>
       </c>
@@ -1192,7 +1551,7 @@
         <v>4457.1499999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44713</v>
       </c>
@@ -1206,7 +1565,7 @@
         <v>4457.1499999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44743</v>
       </c>
@@ -1220,7 +1579,7 @@
         <v>4457.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44774</v>
       </c>
@@ -1234,7 +1593,7 @@
         <v>4457.25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44805</v>
       </c>
@@ -1248,7 +1607,7 @@
         <v>4457.25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44835</v>
       </c>
@@ -1262,7 +1621,7 @@
         <v>4457.1499999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44562</v>
       </c>
@@ -1276,7 +1635,7 @@
         <v>3786.25</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44593</v>
       </c>
@@ -1290,7 +1649,7 @@
         <v>3786.25</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44621</v>
       </c>
@@ -1304,7 +1663,7 @@
         <v>3786.35</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44652</v>
       </c>
@@ -1318,7 +1677,7 @@
         <v>3786.2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44682</v>
       </c>
@@ -1332,7 +1691,7 @@
         <v>3786.2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44713</v>
       </c>
@@ -1346,7 +1705,7 @@
         <v>3786.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44743</v>
       </c>
@@ -1360,7 +1719,7 @@
         <v>3786.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44774</v>
       </c>
@@ -1374,7 +1733,7 @@
         <v>3786.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44805</v>
       </c>
@@ -1388,7 +1747,7 @@
         <v>3786.2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44835</v>
       </c>
@@ -1402,7 +1761,7 @@
         <v>3786.2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44562</v>
       </c>
@@ -1416,7 +1775,7 @@
         <v>875.25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44593</v>
       </c>
@@ -1430,7 +1789,7 @@
         <v>717.65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44621</v>
       </c>
@@ -1444,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44652</v>
       </c>
@@ -1458,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44682</v>
       </c>
@@ -1472,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44713</v>
       </c>
@@ -1486,7 +1845,7 @@
         <v>280.10000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44743</v>
       </c>
@@ -1500,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44774</v>
       </c>
@@ -1514,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44805</v>
       </c>
@@ -1528,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44835</v>
       </c>
@@ -1542,7 +1901,7 @@
         <v>1015.35</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44562</v>
       </c>
@@ -1556,7 +1915,7 @@
         <v>3547.35</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44593</v>
       </c>
@@ -1570,7 +1929,7 @@
         <v>3547.45</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44621</v>
       </c>
@@ -1584,7 +1943,7 @@
         <v>3547.45</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44652</v>
       </c>
@@ -1598,7 +1957,7 @@
         <v>3547.35</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44682</v>
       </c>
@@ -1612,7 +1971,7 @@
         <v>3547.35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44713</v>
       </c>
@@ -1626,7 +1985,7 @@
         <v>3547.35</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44743</v>
       </c>
@@ -1640,7 +1999,7 @@
         <v>3547.45</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44774</v>
       </c>
@@ -1654,7 +2013,7 @@
         <v>3547.45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44805</v>
       </c>
@@ -1668,7 +2027,7 @@
         <v>3547.45</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44835</v>
       </c>
@@ -1682,7 +2041,7 @@
         <v>3547.3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44562</v>
       </c>
@@ -1699,7 +2058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44593</v>
       </c>
@@ -1713,7 +2072,7 @@
         <v>1708.25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44621</v>
       </c>
@@ -1730,7 +2089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44652</v>
       </c>
@@ -1747,7 +2106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44682</v>
       </c>
@@ -1761,7 +2120,7 @@
         <v>1708.35</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44713</v>
       </c>
@@ -1775,7 +2134,7 @@
         <v>1708.25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44743</v>
       </c>
@@ -1789,7 +2148,7 @@
         <v>1708.35</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44774</v>
       </c>
@@ -1803,7 +2162,7 @@
         <v>1708.25</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44805</v>
       </c>
@@ -1820,7 +2179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44835</v>
       </c>
@@ -1834,7 +2193,7 @@
         <v>1516.85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44562</v>
       </c>
@@ -1848,7 +2207,7 @@
         <v>1408.05</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44593</v>
       </c>
@@ -1862,7 +2221,7 @@
         <v>1444.35</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44621</v>
       </c>
@@ -1876,7 +2235,7 @@
         <v>1435.3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44652</v>
       </c>
@@ -1890,7 +2249,7 @@
         <v>1437.45</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44682</v>
       </c>
@@ -1904,7 +2263,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44713</v>
       </c>
@@ -1918,7 +2277,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44743</v>
       </c>
@@ -1932,7 +2291,7 @@
         <v>2816.4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44774</v>
       </c>
@@ -1946,7 +2305,7 @@
         <v>1433.25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44805</v>
       </c>
@@ -1960,7 +2319,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44835</v>
       </c>
@@ -1974,7 +2333,7 @@
         <v>4599.6000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44562</v>
       </c>
@@ -1988,7 +2347,7 @@
         <v>977.25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44593</v>
       </c>
@@ -2002,7 +2361,7 @@
         <v>944.85</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44621</v>
       </c>
@@ -2016,7 +2375,7 @@
         <v>908.45</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44652</v>
       </c>
@@ -2030,7 +2389,7 @@
         <v>949.25</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44682</v>
       </c>
@@ -2044,7 +2403,7 @@
         <v>908.35</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44713</v>
       </c>
@@ -2058,7 +2417,7 @@
         <v>908.35</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44743</v>
       </c>
@@ -2072,7 +2431,7 @@
         <v>908.35</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44774</v>
       </c>
@@ -2086,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44805</v>
       </c>
@@ -2100,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44835</v>
       </c>
@@ -2114,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44562</v>
       </c>
@@ -2128,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44593</v>
       </c>
@@ -2142,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44621</v>
       </c>
@@ -2156,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44652</v>
       </c>
@@ -2170,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44682</v>
       </c>
@@ -2184,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44713</v>
       </c>
@@ -2198,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44743</v>
       </c>
@@ -2212,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44774</v>
       </c>
@@ -2226,7 +2585,7 @@
         <v>190.75</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44805</v>
       </c>
@@ -2240,7 +2599,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44835</v>
       </c>
@@ -2254,7 +2613,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44562</v>
       </c>
@@ -2268,7 +2627,7 @@
         <v>635.85</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44593</v>
       </c>
@@ -2282,7 +2641,7 @@
         <v>635.85</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44621</v>
       </c>
@@ -2296,7 +2655,7 @@
         <v>635.85</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44652</v>
       </c>
@@ -2310,7 +2669,7 @@
         <v>635.95000000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44682</v>
       </c>
@@ -2324,7 +2683,7 @@
         <v>635.79999999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44713</v>
       </c>
@@ -2338,7 +2697,7 @@
         <v>635.95000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44743</v>
       </c>
@@ -2352,7 +2711,7 @@
         <v>635.85</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44774</v>
       </c>
@@ -2366,7 +2725,7 @@
         <v>635.85</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44805</v>
       </c>
@@ -2380,7 +2739,7 @@
         <v>908.4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44835</v>
       </c>
@@ -2394,7 +2753,7 @@
         <v>908.4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44562</v>
       </c>
@@ -2408,7 +2767,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44593</v>
       </c>
@@ -2422,7 +2781,7 @@
         <v>3445.6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44621</v>
       </c>
@@ -2436,7 +2795,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44652</v>
       </c>
@@ -2450,7 +2809,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44682</v>
       </c>
@@ -2464,7 +2823,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44713</v>
       </c>
@@ -2478,7 +2837,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44743</v>
       </c>
@@ -2492,7 +2851,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44774</v>
       </c>
@@ -2506,7 +2865,7 @@
         <v>3445.6</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44805</v>
       </c>
@@ -2520,7 +2879,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44835</v>
       </c>
@@ -2534,7 +2893,7 @@
         <v>3445.5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44562</v>
       </c>
@@ -2548,7 +2907,7 @@
         <v>340.45</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44593</v>
       </c>
@@ -2562,7 +2921,7 @@
         <v>118.15</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44621</v>
       </c>
@@ -2576,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44652</v>
       </c>
@@ -2590,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44682</v>
       </c>
@@ -2604,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44713</v>
       </c>
@@ -2618,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44743</v>
       </c>
@@ -2632,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44774</v>
       </c>
@@ -2646,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44805</v>
       </c>
@@ -2660,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44835</v>
       </c>
@@ -2674,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44562</v>
       </c>
@@ -2688,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44593</v>
       </c>
@@ -2702,7 +3061,7 @@
         <v>534.1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44621</v>
       </c>
@@ -2716,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44652</v>
       </c>
@@ -2730,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44682</v>
       </c>
@@ -2744,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44713</v>
       </c>
@@ -2758,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44743</v>
       </c>
@@ -2772,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44774</v>
       </c>
@@ -2786,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44805</v>
       </c>
@@ -2800,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44835</v>
       </c>
@@ -2814,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44562</v>
       </c>
@@ -2828,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44593</v>
       </c>
@@ -2842,7 +3201,7 @@
         <v>2319.9499999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44621</v>
       </c>
@@ -2856,7 +3215,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44652</v>
       </c>
@@ -2870,7 +3229,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44682</v>
       </c>
@@ -2884,7 +3243,7 @@
         <v>2601.25</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44713</v>
       </c>
@@ -2898,7 +3257,7 @@
         <v>3804.8</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44743</v>
       </c>
@@ -2913,7 +3272,7 @@
         <v>4810.1499999999996</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44774</v>
       </c>
@@ -2927,7 +3286,7 @@
         <v>1432.7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44805</v>
       </c>
@@ -2941,7 +3300,7 @@
         <v>3909.5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44835</v>
       </c>
@@ -2955,7 +3314,7 @@
         <v>3726.35</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44562</v>
       </c>
@@ -2969,7 +3328,7 @@
         <v>1036.55</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44593</v>
       </c>
@@ -2983,7 +3342,7 @@
         <v>1121.5999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>44621</v>
       </c>
@@ -2997,7 +3356,7 @@
         <v>985.6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>44652</v>
       </c>
@@ -3011,7 +3370,7 @@
         <v>1439.95</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>44682</v>
       </c>
@@ -3025,7 +3384,7 @@
         <v>998.8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>44713</v>
       </c>
@@ -3039,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>44743</v>
       </c>
@@ -3053,7 +3412,7 @@
         <v>1083.25</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>44774</v>
       </c>
@@ -3067,7 +3426,7 @@
         <v>932.7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>44805</v>
       </c>
@@ -3081,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>44835</v>
       </c>
@@ -3095,7 +3454,7 @@
         <v>1346.15</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>44562</v>
       </c>
@@ -3109,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>44593</v>
       </c>
@@ -3123,7 +3482,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>44621</v>
       </c>
@@ -3137,7 +3496,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>44652</v>
       </c>
@@ -3151,7 +3510,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>44682</v>
       </c>
@@ -3165,7 +3524,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>44713</v>
       </c>
@@ -3179,7 +3538,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>44743</v>
       </c>
@@ -3193,7 +3552,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>44774</v>
       </c>
@@ -3207,7 +3566,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>44805</v>
       </c>
@@ -3221,7 +3580,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>44835</v>
       </c>
@@ -3235,7 +3594,7 @@
         <v>4519.5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>44562</v>
       </c>
@@ -3249,7 +3608,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>44593</v>
       </c>
@@ -3263,7 +3622,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>44621</v>
       </c>
@@ -3277,7 +3636,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>44652</v>
       </c>
@@ -3291,7 +3650,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>44682</v>
       </c>
@@ -3305,7 +3664,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>44713</v>
       </c>
@@ -3319,7 +3678,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>44743</v>
       </c>
@@ -3333,7 +3692,7 @@
         <v>1964.8</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>44774</v>
       </c>
@@ -3347,7 +3706,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>44805</v>
       </c>
@@ -3361,7 +3720,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>44835</v>
       </c>
@@ -3375,7 +3734,7 @@
         <v>1964.7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>44562</v>
       </c>
@@ -3389,7 +3748,7 @@
         <v>22050.9</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>44593</v>
       </c>
@@ -3403,7 +3762,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>44621</v>
       </c>
@@ -3417,7 +3776,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>44652</v>
       </c>
@@ -3431,7 +3790,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>44682</v>
       </c>
@@ -3445,7 +3804,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>44713</v>
       </c>
@@ -3459,7 +3818,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>44743</v>
       </c>
@@ -3473,7 +3832,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>44774</v>
       </c>
@@ -3487,7 +3846,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>44805</v>
       </c>
@@ -3501,7 +3860,7 @@
         <v>9959.15</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>44835</v>
       </c>
@@ -3515,7 +3874,7 @@
         <v>9592.85</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>44562</v>
       </c>
@@ -3529,7 +3888,7 @@
         <v>16695.599999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>44593</v>
       </c>
@@ -3543,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>44621</v>
       </c>
@@ -3557,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>44652</v>
       </c>
@@ -3571,7 +3930,7 @@
         <v>18005.599999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>44682</v>
       </c>
@@ -3585,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>44713</v>
       </c>
@@ -3599,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>44743</v>
       </c>
@@ -3613,7 +3972,7 @@
         <v>18267.599999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>44774</v>
       </c>
@@ -3627,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>44805</v>
       </c>
@@ -3641,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>44835</v>
       </c>
@@ -3655,7 +4014,7 @@
         <v>22748.400000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>44562</v>
       </c>
@@ -3669,7 +4028,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>44593</v>
       </c>
@@ -3683,7 +4042,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>44621</v>
       </c>
@@ -3697,7 +4056,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>44652</v>
       </c>
@@ -3711,7 +4070,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>44682</v>
       </c>
@@ -3725,7 +4084,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>44713</v>
       </c>
@@ -3739,7 +4098,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>44743</v>
       </c>
@@ -3753,7 +4112,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>44774</v>
       </c>
@@ -3767,7 +4126,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>44805</v>
       </c>
@@ -3781,7 +4140,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>44835</v>
       </c>
@@ -3795,7 +4154,7 @@
         <v>1945.05</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>44562</v>
       </c>
@@ -3809,7 +4168,7 @@
         <v>3125.5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>44593</v>
       </c>
@@ -3823,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>44621</v>
       </c>
@@ -3838,7 +4197,7 @@
         <v>3125.5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>44652</v>
       </c>
@@ -3852,7 +4211,7 @@
         <v>1562.75</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>44682</v>
       </c>
@@ -3866,7 +4225,7 @@
         <v>1562.75</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>44713</v>
       </c>
@@ -3880,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>44743</v>
       </c>
@@ -3894,7 +4253,7 @@
         <v>3125.5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>44774</v>
       </c>
@@ -3908,7 +4267,7 @@
         <v>1562.75</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>44805</v>
       </c>
@@ -3922,7 +4281,7 @@
         <v>1562.75</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>44835</v>
       </c>
@@ -3936,7 +4295,7 @@
         <v>1562.75</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>44562</v>
       </c>
@@ -3950,7 +4309,7 @@
         <v>1159.95</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>44593</v>
       </c>
@@ -3964,7 +4323,7 @@
         <v>1159.95</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>44621</v>
       </c>
@@ -3978,7 +4337,7 @@
         <v>1339.8</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>44652</v>
       </c>
@@ -3992,7 +4351,7 @@
         <v>1339.8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>44682</v>
       </c>
@@ -4006,7 +4365,7 @@
         <v>1339.8</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>44713</v>
       </c>
@@ -4020,7 +4379,7 @@
         <v>1339.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>44743</v>
       </c>
@@ -4034,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>44774</v>
       </c>
@@ -4049,7 +4408,7 @@
         <v>2679.6</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>44805</v>
       </c>
@@ -4063,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>44835</v>
       </c>
@@ -4077,7 +4436,7 @@
         <v>2679.6</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>44562</v>
       </c>
@@ -4091,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>44593</v>
       </c>
@@ -4105,7 +4464,7 @@
         <v>334.6</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>44621</v>
       </c>
@@ -4119,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>44652</v>
       </c>
@@ -4133,7 +4492,7 @@
         <v>301.3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>44682</v>
       </c>
@@ -4147,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>44713</v>
       </c>
@@ -4161,7 +4520,7 @@
         <v>327.55</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>44743</v>
       </c>
@@ -4175,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>44774</v>
       </c>
@@ -4189,7 +4548,7 @@
         <v>746.65</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>44805</v>
       </c>
@@ -4203,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>44835</v>
       </c>
@@ -4217,7 +4576,7 @@
         <v>368.9</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>44562</v>
       </c>
@@ -4231,7 +4590,7 @@
         <v>1926.5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>44593</v>
       </c>
@@ -4245,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>44621</v>
       </c>
@@ -4259,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>44652</v>
       </c>
@@ -4273,7 +4632,7 @@
         <v>1926.5</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>44682</v>
       </c>
@@ -4287,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>44713</v>
       </c>
@@ -4301,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>44743</v>
       </c>
@@ -4315,7 +4674,7 @@
         <v>1926.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>44774</v>
       </c>
@@ -4329,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>44805</v>
       </c>
@@ -4343,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>44835</v>
       </c>
@@ -4357,7 +4716,7 @@
         <v>1926.5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>44562</v>
       </c>
@@ -4371,7 +4730,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>44593</v>
       </c>
@@ -4385,7 +4744,7 @@
         <v>35673.270000000004</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>44621</v>
       </c>
@@ -4399,7 +4758,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>44652</v>
       </c>
@@ -4413,7 +4772,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>44682</v>
       </c>
@@ -4427,7 +4786,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>44713</v>
       </c>
@@ -4441,7 +4800,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>44743</v>
       </c>
@@ -4456,7 +4815,7 @@
         <v>35555.65</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>44774</v>
       </c>
@@ -4470,7 +4829,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>44805</v>
       </c>
@@ -4484,7 +4843,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>44835</v>
       </c>
@@ -4498,7 +4857,7 @@
         <v>35377.9</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>44562</v>
       </c>
@@ -4512,7 +4871,7 @@
         <v>1933.2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>44593</v>
       </c>
@@ -4526,7 +4885,7 @@
         <v>1933.2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>44621</v>
       </c>
@@ -4540,7 +4899,7 @@
         <v>4507.25</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>44652</v>
       </c>
@@ -4554,7 +4913,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>44682</v>
       </c>
@@ -4568,7 +4927,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>44713</v>
       </c>
@@ -4582,7 +4941,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>44743</v>
       </c>
@@ -4596,7 +4955,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>44774</v>
       </c>
@@ -4610,7 +4969,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>44805</v>
       </c>
@@ -4624,7 +4983,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>44835</v>
       </c>
@@ -4638,7 +4997,7 @@
         <v>3220.25</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>44562</v>
       </c>
@@ -4652,7 +5011,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>44593</v>
       </c>
@@ -4666,7 +5025,7 @@
         <v>384.2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>44621</v>
       </c>
@@ -4680,7 +5039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>44652</v>
       </c>
@@ -4694,7 +5053,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>44682</v>
       </c>
@@ -4708,7 +5067,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>44713</v>
       </c>
@@ -4722,7 +5081,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>44743</v>
       </c>
@@ -4736,7 +5095,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>44774</v>
       </c>
@@ -4750,7 +5109,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>44805</v>
       </c>
@@ -4764,7 +5123,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>44835</v>
       </c>
@@ -4778,7 +5137,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>44562</v>
       </c>
@@ -4792,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>44593</v>
       </c>
@@ -4806,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>44621</v>
       </c>
@@ -4820,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>44652</v>
       </c>
@@ -4834,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>44682</v>
       </c>
@@ -4848,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>44713</v>
       </c>
@@ -4862,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>44743</v>
       </c>
@@ -4876,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>44774</v>
       </c>
@@ -4890,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44805</v>
       </c>
@@ -4904,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>44835</v>
       </c>
@@ -4918,7 +5277,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>44562</v>
       </c>
@@ -4932,7 +5291,7 @@
         <v>724.85</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>44593</v>
       </c>
@@ -4946,7 +5305,7 @@
         <v>669.15</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>44621</v>
       </c>
@@ -4960,7 +5319,7 @@
         <v>714.75</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>44652</v>
       </c>
@@ -4974,7 +5333,7 @@
         <v>688.65</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>44682</v>
       </c>
@@ -4988,7 +5347,7 @@
         <v>731.25</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>44713</v>
       </c>
@@ -5002,7 +5361,7 @@
         <v>711.65</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>44743</v>
       </c>
@@ -5016,7 +5375,7 @@
         <v>730.55</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>44774</v>
       </c>
@@ -5030,7 +5389,7 @@
         <v>728.55</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>44805</v>
       </c>
@@ -5044,7 +5403,7 @@
         <v>725.95</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>44835</v>
       </c>
@@ -5058,7 +5417,7 @@
         <v>790.45</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>44562</v>
       </c>
@@ -5072,7 +5431,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>44593</v>
       </c>
@@ -5086,7 +5445,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>44621</v>
       </c>
@@ -5100,7 +5459,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>44652</v>
       </c>
@@ -5114,7 +5473,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>44682</v>
       </c>
@@ -5128,7 +5487,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>44713</v>
       </c>
@@ -5142,7 +5501,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>44743</v>
       </c>
@@ -5156,7 +5515,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>44774</v>
       </c>
@@ -5170,7 +5529,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>44805</v>
       </c>
@@ -5184,7 +5543,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>44835</v>
       </c>
@@ -5196,6 +5555,5647 @@
       </c>
       <c r="D331" s="1">
         <v>190.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D332" s="4">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D333" s="4">
+        <v>1100</v>
+      </c>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D334" s="4">
+        <v>877.1</v>
+      </c>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D335" s="4">
+        <v>1740</v>
+      </c>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D336" s="4">
+        <v>86.55</v>
+      </c>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D337" s="4">
+        <v>4038.75</v>
+      </c>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D338" s="4">
+        <v>45</v>
+      </c>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D339" s="4">
+        <v>330.95</v>
+      </c>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D340" s="4">
+        <v>107.7</v>
+      </c>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D341" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D342" s="4">
+        <v>1267</v>
+      </c>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D343" s="4">
+        <v>1011.56</v>
+      </c>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D344" s="4">
+        <v>418.2</v>
+      </c>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D345" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D346" s="4">
+        <v>344.6</v>
+      </c>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D347" s="4">
+        <v>6264.65</v>
+      </c>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D348" s="4">
+        <v>790</v>
+      </c>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D349" s="4">
+        <v>2325.15</v>
+      </c>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D350" s="4">
+        <v>52.45</v>
+      </c>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D351" s="4">
+        <v>4038.75</v>
+      </c>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D352" s="4">
+        <v>255</v>
+      </c>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D353" s="4">
+        <v>221.65</v>
+      </c>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D354" s="4">
+        <v>107.7</v>
+      </c>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D355" s="4">
+        <v>133.4</v>
+      </c>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D356" s="4">
+        <v>861.62</v>
+      </c>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D357" s="4">
+        <v>5510.45</v>
+      </c>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D358" s="4">
+        <v>100</v>
+      </c>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D359" s="4">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D360" s="4">
+        <v>504</v>
+      </c>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D361" s="4">
+        <v>935.6</v>
+      </c>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D362" s="4">
+        <v>153.6</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D363" s="4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D364" s="4">
+        <v>1828.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D365" s="4">
+        <v>2362.4499999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D366" s="4">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D367" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D368" s="4">
+        <v>219.05</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D369" s="4">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D370" s="4">
+        <v>159.69999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D371" s="4">
+        <v>323.10000000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D372" s="4">
+        <v>409.25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D373" s="4">
+        <v>927.51</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D374" s="4">
+        <v>1145.95</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D375" s="4">
+        <v>237.25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D376" s="4">
+        <v>759.80000000000007</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D377" s="4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D378" s="4">
+        <v>2336.4499999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D379" s="4">
+        <v>78.2</v>
+      </c>
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D380" s="4">
+        <v>8077.5</v>
+      </c>
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D381" s="4">
+        <v>290</v>
+      </c>
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D382" s="4">
+        <v>252.2</v>
+      </c>
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D383" s="4">
+        <v>107.7</v>
+      </c>
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D384" s="4">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D385" s="4">
+        <v>208.1</v>
+      </c>
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D386" s="4">
+        <v>1188.69</v>
+      </c>
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D387" s="4">
+        <v>2230</v>
+      </c>
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D388" s="4">
+        <v>218.15</v>
+      </c>
+      <c r="E388" s="3"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D389" s="4">
+        <v>304.75</v>
+      </c>
+      <c r="E389" s="3"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D390" s="4">
+        <v>361.8</v>
+      </c>
+      <c r="E390" s="3"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D391" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D392" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="E392" s="3"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D393" s="4">
+        <v>870</v>
+      </c>
+      <c r="E393" s="3"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D394" s="4">
+        <v>2099.4499999999998</v>
+      </c>
+      <c r="E394" s="3"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D395" s="4">
+        <v>2276.4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D396" s="4">
+        <v>204.55</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D397" s="4">
+        <v>4038.75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D398" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D399" s="4">
+        <v>464.6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D400" s="4">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D401" s="4">
+        <v>78.849999999999994</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D402" s="4">
+        <v>946.22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D403" s="4">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D404" s="4">
+        <v>233.15</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D405" s="4">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D406" s="4">
+        <v>1884.75</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D407" s="4">
+        <v>8972.6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D408" s="4">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D409" s="4">
+        <v>2276.35</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D410" s="4">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D411" s="4">
+        <v>4038.75</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D412" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D413" s="4">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D414" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D415" s="4">
+        <v>323.10000000000002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D416" s="4">
+        <v>598.9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D417" s="4">
+        <v>1168.1099999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D418" s="4">
+        <v>213.8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D419" s="4">
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D420" s="4">
+        <v>10231.5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D421" s="4">
+        <v>1723.2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D422" s="4">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D423" s="4">
+        <v>726.3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D424" s="4">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D425" s="4">
+        <v>435.8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D426" s="4">
+        <v>4038.75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D427" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D428" s="4">
+        <v>462.35</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D429" s="4">
+        <v>118.45</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D430" s="4">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D431" s="4">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D432" s="4">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D433" s="4">
+        <v>1719.8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D434" s="4">
+        <v>92.35</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D435" s="4">
+        <v>128.19999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D436" s="4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D437" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D438" s="4">
+        <v>4605.45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D439" s="4">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D440" s="4">
+        <v>4038.75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D441" s="4">
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D442" s="4">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D443" s="4">
+        <v>118.45</v>
+      </c>
+      <c r="E443" s="3"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D444" s="4">
+        <v>1416.79</v>
+      </c>
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D445" s="4">
+        <v>881.15</v>
+      </c>
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D446" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D447" s="4">
+        <v>49.05</v>
+      </c>
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D448" s="4">
+        <v>352.7</v>
+      </c>
+      <c r="E448" s="3"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D449" s="4">
+        <v>2602.75</v>
+      </c>
+      <c r="E449" s="3"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D450" s="4">
+        <v>417.8</v>
+      </c>
+      <c r="E450" s="3"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D451" s="4">
+        <v>55.3</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D452" s="4">
+        <v>770</v>
+      </c>
+      <c r="E452" s="3"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D453" s="4">
+        <v>2276.35</v>
+      </c>
+      <c r="E453" s="3"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D454" s="4">
+        <v>50</v>
+      </c>
+      <c r="E454" s="3"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D455" s="4">
+        <v>4038.75</v>
+      </c>
+      <c r="E455" s="3"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D456" s="4">
+        <v>263.5</v>
+      </c>
+      <c r="E456" s="3"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D457" s="4">
+        <v>102.24</v>
+      </c>
+      <c r="E457" s="3"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D458" s="4">
+        <v>118.45</v>
+      </c>
+      <c r="E458" s="3"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D459" s="4">
+        <v>269.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D460" s="4">
+        <v>323.10000000000002</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D461" s="4">
+        <v>223.45</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D462" s="4">
+        <v>815.7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D463" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D464" s="4">
+        <v>7200.45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D465" s="4">
+        <v>884.1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D466" s="4">
+        <v>50.27</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D467" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D468" s="4">
+        <v>2276.35</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D469" s="4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D470" s="4">
+        <v>4038.75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D471" s="4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D472" s="4">
+        <v>359.88</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D473" s="4">
+        <v>226.74</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D474" s="4">
+        <v>118.45</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D475" s="4">
+        <v>218.6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D476" s="4">
+        <v>1270.46</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D477" s="4">
+        <v>659.12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D478" s="4">
+        <v>3252.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D479" s="4">
+        <v>1376.3999999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D480" s="4">
+        <v>608.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D481" s="4">
+        <v>1206.25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D482" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D483" s="4">
+        <v>121.39999999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D484" s="4">
+        <v>541.95000000000005</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D485" s="4">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D486" s="4">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D487" s="4">
+        <v>673.15</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D488" s="4">
+        <v>1355.85</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D489" s="4">
+        <v>788.75</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D490" s="4">
+        <v>14242.650000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D491" s="4">
+        <v>378.65</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D492" s="4">
+        <v>143.85</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D493" s="4">
+        <v>1076.3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D494" s="4">
+        <v>347.75</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D495" s="4">
+        <v>739.7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D496" s="4">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D497" s="4">
+        <v>952.97</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D498" s="4">
+        <v>358.65</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D499" s="4">
+        <v>1730.75</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D500" s="4">
+        <v>1966.85</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D501" s="4">
+        <v>257.94</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D502" s="4">
+        <v>1203.55</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D503" s="4">
+        <v>3155.95</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D504" s="4">
+        <v>1287.6500000000001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D505" s="4">
+        <v>125.45</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D506" s="4">
+        <v>127.25</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D507" s="4">
+        <v>234.25</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D508" s="4">
+        <v>625.75</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D509" s="4">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D510" s="4">
+        <v>1599.47</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D511" s="4">
+        <v>1477.3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D512" s="4">
+        <v>89.05</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D513" s="4">
+        <v>362.85</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D514" s="4">
+        <v>23073.3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D515" s="4">
+        <v>1058.7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D516" s="4">
+        <v>160.15</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D517" s="4">
+        <v>1450.5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D518" s="4">
+        <v>290.8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D519" s="4">
+        <v>119.85</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D520" s="4">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D521" s="4">
+        <v>485.75</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D522" s="4">
+        <v>259.3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D523" s="4">
+        <v>994.85</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D524" s="4">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D525" s="4">
+        <v>764.05</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D526" s="4">
+        <v>1549.15</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D527" s="4">
+        <v>3543.5499999999997</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D528" s="4">
+        <v>257.94</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D529" s="4">
+        <v>962.84</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D530" s="4">
+        <v>73.45</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D531" s="4">
+        <v>4253.8999999999996</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D532" s="4">
+        <v>609.15</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D533" s="4">
+        <v>269.3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D534" s="4">
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D535" s="4">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D536" s="4">
+        <v>544.4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D537" s="4">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D538" s="4">
+        <v>1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D539" s="4">
+        <v>954.3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D540" s="4">
+        <v>2828.2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D541" s="4">
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D542" s="4">
+        <v>7227.1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D543" s="4">
+        <v>1206.3499999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D544" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D545" s="4">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D546" s="4">
+        <v>791.6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D547" s="4">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D548" s="4">
+        <v>705.25</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D549" s="4">
+        <v>962.75</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D550" s="4">
+        <v>3010.8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D551" s="4">
+        <v>5017.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D552" s="4">
+        <v>1000.05</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D553" s="4">
+        <v>125.45</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D554" s="4">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D555" s="4">
+        <v>283.35000000000002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D556" s="4">
+        <v>142.05000000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D557" s="4">
+        <v>135.05000000000001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D558" s="4">
+        <v>837.05</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D559" s="4">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D560" s="4">
+        <v>1175.45</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D561" s="4">
+        <v>478.2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D562" s="4">
+        <v>4811.6000000000004</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D563" s="4">
+        <v>553.65</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D564" s="4">
+        <v>122.36</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D565" s="4">
+        <v>5434.95</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D566" s="4">
+        <v>499.1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D567" s="4">
+        <v>1063.9000000000001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D568" s="4">
+        <v>363.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D569" s="4">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D570" s="4">
+        <v>1245.9000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D571" s="4">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D572" s="4">
+        <v>659.12</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D573" s="4">
+        <v>2180.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D574" s="4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D575" s="4">
+        <v>1203.55</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D576" s="4">
+        <v>262.39999999999998</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D577" s="4">
+        <v>3944.15</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D578" s="4">
+        <v>228.3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D579" s="4">
+        <v>517.75</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D580" s="4">
+        <v>275.3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D581" s="4">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D582" s="4">
+        <v>92.75</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D583" s="4">
+        <v>225.05</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D584" s="4">
+        <v>914.15000000000009</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D585" s="4">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D586" s="4">
+        <v>940.35</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D587" s="4">
+        <v>2553.75</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D588" s="4">
+        <v>1870.55</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D589" s="4">
+        <v>108.04</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D590" s="4">
+        <v>6519.1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D591" s="4">
+        <v>56.68</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D592" s="4">
+        <v>838.1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D593" s="4">
+        <v>125.45</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D594" s="4">
+        <v>1470.3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D595" s="4">
+        <v>259.3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D596" s="4">
+        <v>731.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D597" s="4">
+        <v>89.25</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D598" s="4">
+        <v>406.15</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D599" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D600" s="4">
+        <v>509.15</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D601" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D602" s="4">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D603" s="4">
+        <v>70.349999999999994</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D604" s="4">
+        <v>1162.2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D605" s="4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D606" s="4">
+        <v>927.35</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D607" s="4">
+        <v>328.6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D608" s="4">
+        <v>2385.65</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D609" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D610" s="4">
+        <v>1071.8499999999999</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D611" s="4">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D612" s="4">
+        <v>354.3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D613" s="4">
+        <v>575.20000000000005</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D614" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D615" s="4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D616" s="4">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D617" s="4">
+        <v>221.85</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D618" s="4">
+        <v>264.95</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D619" s="4">
+        <v>1340.65</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D620" s="4">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D621" s="4">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D622" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D623" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D624" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D625" s="4">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D626" s="4">
+        <v>1006.3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D627" s="4">
+        <v>371.55</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D628" s="4">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D629" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D630" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D631" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D632" s="4">
+        <v>318.60000000000002</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D633" s="4">
+        <v>5108.2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D634" s="4">
+        <v>950.4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D635" s="4">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D636" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D637" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D638" s="4">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D639" s="4">
+        <v>191.25</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D640" s="4">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D641" s="4">
+        <v>993.7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D642" s="4">
+        <v>4767.2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D643" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D644" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D645" s="4">
+        <v>553.79999999999995</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D646" s="4">
+        <v>3387.15</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D647" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D648" s="4">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D649" s="4">
+        <v>475.2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D650" s="4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D651" s="4">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D652" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D653" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D654" s="4">
+        <v>1714.1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D655" s="4">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D656" s="4">
+        <v>148.25</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D657" s="4">
+        <v>971.95</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D658" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D659" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D660" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D661" s="4">
+        <v>2028.4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D662" s="4">
+        <v>1628.8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D663" s="4">
+        <v>775.45</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D664" s="4">
+        <v>1014.8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D665" s="4">
+        <v>148.1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D666" s="4">
+        <v>3549.8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D667" s="4">
+        <v>77.540000000000006</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D668" s="4">
+        <v>310.40000000000003</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D669" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D670" s="4">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D671" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D672" s="4">
+        <v>1075.9000000000001</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D673" s="4">
+        <v>1277.05</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D674" s="4">
+        <v>1815.3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D675" s="4">
+        <v>3549.8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D676" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D677" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D678" s="4">
+        <v>2014.2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D679" s="4">
+        <v>591.9</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D680" s="4">
+        <v>538.04999999999995</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D681" s="4">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D682" s="4">
+        <v>3549.8</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D683" s="4">
+        <v>301.55</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D684" s="4">
+        <v>203.55</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D685" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D686" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D687" s="4">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D688" s="4">
+        <v>340.8</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D689" s="4">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D690" s="4">
+        <v>561.65</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D691" s="4">
+        <v>737.35</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D692" s="4">
+        <v>86.15</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D693" s="4">
+        <v>312.85000000000002</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D694" s="4">
+        <v>4785.1000000000004</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D695" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D696" s="4">
+        <v>771.25</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D697" s="4">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D698" s="4">
+        <v>4981.3500000000004</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D699" s="4">
+        <v>919.68</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D700" s="4">
+        <v>1858.43</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D701" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D702" s="4">
+        <v>9492</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D703" s="4">
+        <v>1595.28</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D704" s="4">
+        <v>4863.05</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D705" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D706" s="4">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D707" s="4">
+        <v>1127.8399999999999</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D708" s="4">
+        <v>7383.47</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D709" s="4">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D710" s="4">
+        <v>2928.13</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D711" s="4">
+        <v>8396.73</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D712" s="4">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D713" s="4">
+        <v>1844.23</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D714" s="4">
+        <v>12554.35</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D715" s="4">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D716" s="4">
+        <v>1848.15</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D717" s="4">
+        <v>3859.65</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D718" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D719" s="4">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D720" s="4">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D721" s="4">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D722" s="4">
+        <v>11772.39</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D723" s="4">
+        <v>6088.5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D724" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D725" s="4">
+        <v>343.5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D726" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D727" s="4">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D728" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D729" s="4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
